--- a/dataAnalysis/csvdatas/breakfast.xlsx
+++ b/dataAnalysis/csvdatas/breakfast.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김민성\Documents\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김민성\Documents\Desktop\myteam2\dataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3C3E0246-ED4F-4034-A2B3-4E2204813B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AEA4A25-59A9-498A-8883-37E5F6600412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -23,7 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>날짜</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>건수</t>
@@ -700,31 +699,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
-              <a:t>기간에 따른 배달건수</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -788,7 +762,7 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="25400" cap="rnd">
+              <a:ln w="31750" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -798,14 +772,50 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.9720490850467334E-4"/>
+                  <c:y val="-0.39438967766824423"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>breakfast!$A$2:$A$755</c:f>
+              <c:f>breakfast!$A$2:$A$594</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="754"/>
+                <c:ptCount val="593"/>
                 <c:pt idx="0">
                   <c:v>43678</c:v>
                 </c:pt>
@@ -2581,16 +2591,19 @@
                 </c:pt>
                 <c:pt idx="591">
                   <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>44271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>breakfast!$B$2:$B$755</c:f>
+              <c:f>breakfast!$B$2:$B$594</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="754"/>
+                <c:ptCount val="593"/>
                 <c:pt idx="0">
                   <c:v>67</c:v>
                 </c:pt>
@@ -3843,19 +3856,19 @@
                   <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>9</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>9</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>9</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>6</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>0</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="422">
                   <c:v>251</c:v>
@@ -3921,7 +3934,7 @@
                   <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>0</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="444">
                   <c:v>188</c:v>
@@ -4161,13 +4174,13 @@
                   <c:v>317</c:v>
                 </c:pt>
                 <c:pt idx="523">
-                  <c:v>0</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="524">
-                  <c:v>28</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="525">
-                  <c:v>64</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="526">
                   <c:v>153</c:v>
@@ -4366,6 +4379,9 @@
                 </c:pt>
                 <c:pt idx="591">
                   <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4373,7 +4389,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8A52-431E-8C82-DD2CBD8651F7}"/>
+              <c16:uniqueId val="{00000000-ADB3-4C1B-8104-8F6762EE9E61}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4386,18 +4402,18 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1535511040"/>
-        <c:axId val="1535520608"/>
+        <c:axId val="1496980480"/>
+        <c:axId val="1496980896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1535511040"/>
+        <c:axId val="1496980480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -4433,14 +4449,14 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1535520608"/>
+        <c:crossAx val="1496980896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1535520608"/>
+        <c:axId val="1496980896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4491,7 +4507,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1535511040"/>
+        <c:crossAx val="1496980480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4505,13 +4521,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -5107,23 +5116,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>459440</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{762B5DE4-E7C1-46C3-877B-1D5F3C39B1A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBA11158-496E-41A3-93E6-E04F2547F60D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5441,10 +5450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B755"/>
+  <dimension ref="A1:B594"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8801,7 +8810,7 @@
         <v>44096</v>
       </c>
       <c r="B419">
-        <v>9</v>
+        <v>182</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
@@ -8809,7 +8818,7 @@
         <v>44097</v>
       </c>
       <c r="B420">
-        <v>9</v>
+        <v>179</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
@@ -8817,7 +8826,7 @@
         <v>44098</v>
       </c>
       <c r="B421">
-        <v>9</v>
+        <v>179</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
@@ -8825,7 +8834,7 @@
         <v>44099</v>
       </c>
       <c r="B422">
-        <v>6</v>
+        <v>188</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
@@ -8833,7 +8842,7 @@
         <v>44100</v>
       </c>
       <c r="B423">
-        <v>0</v>
+        <v>251</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
@@ -9009,7 +9018,7 @@
         <v>44122</v>
       </c>
       <c r="B445">
-        <v>0</v>
+        <v>204</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
@@ -9649,7 +9658,7 @@
         <v>44202</v>
       </c>
       <c r="B525">
-        <v>0</v>
+        <v>275</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
@@ -9657,7 +9666,7 @@
         <v>44203</v>
       </c>
       <c r="B526">
-        <v>28</v>
+        <v>249</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
@@ -9665,7 +9674,7 @@
         <v>44204</v>
       </c>
       <c r="B527">
-        <v>64</v>
+        <v>168</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
@@ -10197,490 +10206,12 @@
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A594" s="1"/>
-    </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A595" s="1"/>
-    </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A596" s="1"/>
-    </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A597" s="1"/>
-    </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A598" s="1"/>
-    </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A599" s="1"/>
-    </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A600" s="1"/>
-    </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A601" s="1"/>
-    </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A602" s="1"/>
-    </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A603" s="1"/>
-    </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A604" s="1"/>
-    </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A605" s="1"/>
-    </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A606" s="1"/>
-    </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A607" s="1"/>
-    </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A608" s="1"/>
-    </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A609" s="1"/>
-    </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A610" s="1"/>
-    </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A611" s="1"/>
-    </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A612" s="1"/>
-    </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A613" s="1"/>
-    </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A614" s="1"/>
-    </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A615" s="1"/>
-    </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A616" s="1"/>
-    </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A617" s="1"/>
-    </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A618" s="1"/>
-    </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A619" s="1"/>
-    </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A620" s="1"/>
-    </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A621" s="1"/>
-    </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A622" s="1"/>
-    </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A623" s="1"/>
-    </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A624" s="1"/>
-    </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A625" s="1"/>
-    </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A626" s="1"/>
-    </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A627" s="1"/>
-    </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A628" s="1"/>
-    </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A629" s="1"/>
-    </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A630" s="1"/>
-    </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A631" s="1"/>
-    </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A632" s="1"/>
-    </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A633" s="1"/>
-    </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A634" s="1"/>
-    </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A635" s="1"/>
-    </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A636" s="1"/>
-    </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A637" s="1"/>
-    </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A638" s="1"/>
-    </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A639" s="1"/>
-    </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A640" s="1"/>
-    </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A641" s="1"/>
-    </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A642" s="1"/>
-    </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A643" s="1"/>
-    </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A644" s="1"/>
-    </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A645" s="1"/>
-    </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A646" s="1"/>
-    </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A647" s="1"/>
-    </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A648" s="1"/>
-    </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A649" s="1"/>
-    </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A650" s="1"/>
-    </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A651" s="1"/>
-    </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A652" s="1"/>
-    </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A653" s="1"/>
-    </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A654" s="1"/>
-    </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A655" s="1"/>
-    </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A656" s="1"/>
-    </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A657" s="1"/>
-    </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A658" s="1"/>
-    </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A659" s="1"/>
-    </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A660" s="1"/>
-    </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A661" s="1"/>
-    </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A662" s="1"/>
-    </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A663" s="1"/>
-    </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A664" s="1"/>
-    </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A665" s="1"/>
-    </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A666" s="1"/>
-    </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A667" s="1"/>
-    </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A668" s="1"/>
-    </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A669" s="1"/>
-    </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A670" s="1"/>
-    </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A671" s="1"/>
-    </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A672" s="1"/>
-    </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A673" s="1"/>
-    </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A674" s="1"/>
-    </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A675" s="1"/>
-    </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A676" s="1"/>
-    </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A677" s="1"/>
-    </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A678" s="1"/>
-    </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A679" s="1"/>
-    </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A680" s="1"/>
-    </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A681" s="1"/>
-    </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A682" s="1"/>
-    </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A683" s="1"/>
-    </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A684" s="1"/>
-    </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A685" s="1"/>
-    </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A686" s="1"/>
-    </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A687" s="1"/>
-    </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A688" s="1"/>
-    </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A689" s="1"/>
-    </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A690" s="1"/>
-    </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A691" s="1"/>
-    </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A692" s="1"/>
-    </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A693" s="1"/>
-    </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A694" s="1"/>
-    </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A695" s="1"/>
-    </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A696" s="1"/>
-    </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A697" s="1"/>
-    </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A698" s="1"/>
-    </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A699" s="1"/>
-    </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A700" s="1"/>
-    </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A701" s="1"/>
-    </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A702" s="1"/>
-    </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A703" s="1"/>
-    </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A704" s="1"/>
-    </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A705" s="1"/>
-    </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A706" s="1"/>
-    </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A707" s="1"/>
-    </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A708" s="1"/>
-    </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A709" s="1"/>
-    </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A710" s="1"/>
-    </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A711" s="1"/>
-    </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A712" s="1"/>
-    </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A713" s="1"/>
-    </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A714" s="1"/>
-    </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A715" s="1"/>
-    </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A716" s="1"/>
-    </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A717" s="1"/>
-    </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A718" s="1"/>
-    </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A719" s="1"/>
-    </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A720" s="1"/>
-    </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A721" s="1"/>
-    </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A722" s="1"/>
-    </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A723" s="1"/>
-    </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A724" s="1"/>
-    </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A725" s="1"/>
-    </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A726" s="1"/>
-    </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A727" s="1"/>
-    </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A728" s="1"/>
-    </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A729" s="1"/>
-    </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A730" s="1"/>
-    </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A731" s="1"/>
-    </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A732" s="1"/>
-    </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A733" s="1"/>
-    </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A734" s="1"/>
-    </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A735" s="1"/>
-    </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A736" s="1"/>
-    </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A737" s="1"/>
-    </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A738" s="1"/>
-    </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A739" s="1"/>
-    </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A740" s="1"/>
-    </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A741" s="1"/>
-    </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A742" s="1"/>
-    </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A743" s="1"/>
-    </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A744" s="1"/>
-    </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A745" s="1"/>
-    </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A746" s="1"/>
-    </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A747" s="1"/>
-    </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A748" s="1"/>
-    </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A749" s="1"/>
-    </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A750" s="1"/>
-    </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A751" s="1"/>
-    </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A752" s="1"/>
-    </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A753" s="1"/>
-    </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A754" s="1"/>
-    </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A755" s="1"/>
+      <c r="A594" s="1">
+        <v>44271</v>
+      </c>
+      <c r="B594">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
